--- a/Code/Results/Cases/Case_5_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_73/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00780554543441</v>
+        <v>1.038642423396847</v>
       </c>
       <c r="D2">
-        <v>1.02761723591363</v>
+        <v>1.044516097984917</v>
       </c>
       <c r="E2">
-        <v>1.022362011217095</v>
+        <v>1.046499221168529</v>
       </c>
       <c r="F2">
-        <v>1.031271845195543</v>
+        <v>1.055492008821156</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050533730175659</v>
+        <v>1.036868983144936</v>
       </c>
       <c r="J2">
-        <v>1.029755274317619</v>
+        <v>1.043738752650487</v>
       </c>
       <c r="K2">
-        <v>1.038704773138412</v>
+        <v>1.047286928701408</v>
       </c>
       <c r="L2">
-        <v>1.033518356212152</v>
+        <v>1.049264485977201</v>
       </c>
       <c r="M2">
-        <v>1.042312049034379</v>
+        <v>1.058232318552412</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012404790717002</v>
+        <v>1.039616177363465</v>
       </c>
       <c r="D3">
-        <v>1.031063724954062</v>
+        <v>1.04525444585178</v>
       </c>
       <c r="E3">
-        <v>1.026148903665483</v>
+        <v>1.047349578577586</v>
       </c>
       <c r="F3">
-        <v>1.035300748487026</v>
+        <v>1.056392440981088</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051792057256412</v>
+        <v>1.037043910859589</v>
       </c>
       <c r="J3">
-        <v>1.032562907491627</v>
+        <v>1.044357262356669</v>
       </c>
       <c r="K3">
-        <v>1.041313988155932</v>
+        <v>1.047836720561548</v>
       </c>
       <c r="L3">
-        <v>1.036457789197794</v>
+        <v>1.049926397693937</v>
       </c>
       <c r="M3">
-        <v>1.045501026890026</v>
+        <v>1.058945980818656</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015319640658812</v>
+        <v>1.040246583607186</v>
       </c>
       <c r="D4">
-        <v>1.033248378918514</v>
+        <v>1.04573209896655</v>
       </c>
       <c r="E4">
-        <v>1.028554531542261</v>
+        <v>1.047900433007013</v>
       </c>
       <c r="F4">
-        <v>1.03785882721126</v>
+        <v>1.056975590338033</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052574656044943</v>
+        <v>1.037155301556384</v>
       </c>
       <c r="J4">
-        <v>1.034339423930573</v>
+        <v>1.04475719213287</v>
       </c>
       <c r="K4">
-        <v>1.042961425864904</v>
+        <v>1.048191698784552</v>
       </c>
       <c r="L4">
-        <v>1.038320123164426</v>
+        <v>1.050354670623625</v>
       </c>
       <c r="M4">
-        <v>1.04752083172877</v>
+        <v>1.059407642136563</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016530916561553</v>
+        <v>1.04051168265867</v>
       </c>
       <c r="D5">
-        <v>1.034156251239234</v>
+        <v>1.045932877220013</v>
       </c>
       <c r="E5">
-        <v>1.029555501764426</v>
+        <v>1.048132158427587</v>
       </c>
       <c r="F5">
-        <v>1.038922923027856</v>
+        <v>1.057220866905731</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052896240281335</v>
+        <v>1.037201698745561</v>
       </c>
       <c r="J5">
-        <v>1.035076935803181</v>
+        <v>1.044925252833738</v>
       </c>
       <c r="K5">
-        <v>1.043644485713337</v>
+        <v>1.048340745256467</v>
       </c>
       <c r="L5">
-        <v>1.039093842535618</v>
+        <v>1.050534708735926</v>
       </c>
       <c r="M5">
-        <v>1.048359817663534</v>
+        <v>1.059601693209535</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016733481250021</v>
+        <v>1.040556198402184</v>
       </c>
       <c r="D6">
-        <v>1.034308077153104</v>
+        <v>1.045966587140691</v>
       </c>
       <c r="E6">
-        <v>1.029722971843486</v>
+        <v>1.048171074680907</v>
       </c>
       <c r="F6">
-        <v>1.039100936384363</v>
+        <v>1.057262056950499</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052949804781753</v>
+        <v>1.037209463715757</v>
       </c>
       <c r="J6">
-        <v>1.035200228028756</v>
+        <v>1.044953466844553</v>
       </c>
       <c r="K6">
-        <v>1.043758623587488</v>
+        <v>1.048365759853681</v>
       </c>
       <c r="L6">
-        <v>1.039223221828907</v>
+        <v>1.050564937436922</v>
       </c>
       <c r="M6">
-        <v>1.048500101387352</v>
+        <v>1.059634273365299</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015335880630206</v>
+        <v>1.040250125575135</v>
       </c>
       <c r="D7">
-        <v>1.033260551010986</v>
+        <v>1.045734781883747</v>
       </c>
       <c r="E7">
-        <v>1.028567946786488</v>
+        <v>1.047903528760565</v>
       </c>
       <c r="F7">
-        <v>1.037873089697561</v>
+        <v>1.056978867263522</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052578982031992</v>
+        <v>1.037155923214151</v>
       </c>
       <c r="J7">
-        <v>1.034349314908045</v>
+        <v>1.044759438043598</v>
       </c>
       <c r="K7">
-        <v>1.042970590016587</v>
+        <v>1.048193691084524</v>
       </c>
       <c r="L7">
-        <v>1.038330497435595</v>
+        <v>1.050357076333805</v>
       </c>
       <c r="M7">
-        <v>1.047532081735009</v>
+        <v>1.059410235181189</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009372867161312</v>
+        <v>1.038971440833103</v>
       </c>
       <c r="D8">
-        <v>1.028791606058185</v>
+        <v>1.044765647473418</v>
       </c>
       <c r="E8">
-        <v>1.023651293995827</v>
+        <v>1.046786475023407</v>
       </c>
       <c r="F8">
-        <v>1.032643792453211</v>
+        <v>1.055796207737536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050965628532743</v>
+        <v>1.036928472896355</v>
       </c>
       <c r="J8">
-        <v>1.030712632557597</v>
+        <v>1.04394783981248</v>
       </c>
       <c r="K8">
-        <v>1.039595203855125</v>
+        <v>1.047472893007043</v>
       </c>
       <c r="L8">
-        <v>1.034520147322378</v>
+        <v>1.04948818733812</v>
       </c>
       <c r="M8">
-        <v>1.043399018173781</v>
+        <v>1.058473529398671</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9983721671175535</v>
+        <v>1.036720742773146</v>
       </c>
       <c r="D9">
-        <v>1.02055314283125</v>
+        <v>1.043057149233229</v>
       </c>
       <c r="E9">
-        <v>1.014627915840004</v>
+        <v>1.044822862425213</v>
       </c>
       <c r="F9">
-        <v>1.023036410830444</v>
+        <v>1.053716174823376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047873319244939</v>
+        <v>1.03651392792973</v>
       </c>
       <c r="J9">
-        <v>1.023982539604233</v>
+        <v>1.042515542268365</v>
       </c>
       <c r="K9">
-        <v>1.033321334107651</v>
+        <v>1.04619687624649</v>
       </c>
       <c r="L9">
-        <v>1.027488041125547</v>
+        <v>1.047956924980987</v>
       </c>
       <c r="M9">
-        <v>1.035766476473046</v>
+        <v>1.056822022952031</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9906701180597303</v>
+        <v>1.035222014608787</v>
       </c>
       <c r="D10">
-        <v>1.01479335047397</v>
+        <v>1.041917722671085</v>
       </c>
       <c r="E10">
-        <v>1.008345419528964</v>
+        <v>1.043517078096145</v>
       </c>
       <c r="F10">
-        <v>1.016340358579936</v>
+        <v>1.052332233614569</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045633386930079</v>
+        <v>1.036228362666383</v>
       </c>
       <c r="J10">
-        <v>1.019258857125389</v>
+        <v>1.041559283414111</v>
       </c>
       <c r="K10">
-        <v>1.028900546458488</v>
+        <v>1.045342310310746</v>
       </c>
       <c r="L10">
-        <v>1.022565612127047</v>
+        <v>1.046936032291316</v>
       </c>
       <c r="M10">
-        <v>1.030420719982008</v>
+        <v>1.055720476266042</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9872387900241574</v>
+        <v>1.034573470977231</v>
       </c>
       <c r="D11">
-        <v>1.012230291368849</v>
+        <v>1.041424254068164</v>
       </c>
       <c r="E11">
-        <v>1.00555565040349</v>
+        <v>1.042952455624236</v>
       </c>
       <c r="F11">
-        <v>1.013365292083172</v>
+        <v>1.05173364033933</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044618551550496</v>
+        <v>1.036102535716332</v>
       </c>
       <c r="J11">
-        <v>1.017152258202227</v>
+        <v>1.041144893814154</v>
       </c>
       <c r="K11">
-        <v>1.026925190098144</v>
+        <v>1.044971364806084</v>
       </c>
       <c r="L11">
-        <v>1.020373550347544</v>
+        <v>1.046493975189003</v>
       </c>
       <c r="M11">
-        <v>1.028039484634024</v>
+        <v>1.055243380175141</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9859489534486718</v>
+        <v>1.034332636175689</v>
       </c>
       <c r="D12">
-        <v>1.011267374842646</v>
+        <v>1.041240945767739</v>
       </c>
       <c r="E12">
-        <v>1.004508420578626</v>
+        <v>1.042742849758554</v>
       </c>
       <c r="F12">
-        <v>1.01224825534787</v>
+        <v>1.051511396983049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044234605638502</v>
+        <v>1.036055471810863</v>
       </c>
       <c r="J12">
-        <v>1.016360117515769</v>
+        <v>1.04099092339964</v>
       </c>
       <c r="K12">
-        <v>1.02618184719803</v>
+        <v>1.044833443002753</v>
       </c>
       <c r="L12">
-        <v>1.019549753097121</v>
+        <v>1.046329775916221</v>
       </c>
       <c r="M12">
-        <v>1.027144500945418</v>
+        <v>1.055066148667759</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9862263334662782</v>
+        <v>1.034384293187135</v>
       </c>
       <c r="D13">
-        <v>1.011474424744328</v>
+        <v>1.041280266546077</v>
       </c>
       <c r="E13">
-        <v>1.004733561419665</v>
+        <v>1.042787805475136</v>
       </c>
       <c r="F13">
-        <v>1.012488415059554</v>
+        <v>1.051559064353082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044317283742786</v>
+        <v>1.036065581928137</v>
       </c>
       <c r="J13">
-        <v>1.016530479071418</v>
+        <v>1.041023952718935</v>
       </c>
       <c r="K13">
-        <v>1.026341738672587</v>
+        <v>1.04486303384154</v>
       </c>
       <c r="L13">
-        <v>1.019726901123742</v>
+        <v>1.046364997182809</v>
       </c>
       <c r="M13">
-        <v>1.027336960911249</v>
+        <v>1.055104166168982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9871324885761186</v>
+        <v>1.034553562204236</v>
       </c>
       <c r="D14">
-        <v>1.012150921462332</v>
+        <v>1.041409101985769</v>
       </c>
       <c r="E14">
-        <v>1.005469313517956</v>
+        <v>1.042935127081541</v>
       </c>
       <c r="F14">
-        <v>1.013273205177452</v>
+        <v>1.051715267569474</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044586958524768</v>
+        <v>1.036098652049374</v>
       </c>
       <c r="J14">
-        <v>1.017086979357196</v>
+        <v>1.041132167538892</v>
       </c>
       <c r="K14">
-        <v>1.026863943690811</v>
+        <v>1.04495996691789</v>
       </c>
       <c r="L14">
-        <v>1.020305652969923</v>
+        <v>1.046480402411642</v>
       </c>
       <c r="M14">
-        <v>1.027965721932484</v>
+        <v>1.055228730499238</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9876887491713863</v>
+        <v>1.03465786282654</v>
       </c>
       <c r="D15">
-        <v>1.012566275534038</v>
+        <v>1.041488480190231</v>
       </c>
       <c r="E15">
-        <v>1.005921161672633</v>
+        <v>1.043025912732169</v>
       </c>
       <c r="F15">
-        <v>1.013755136151789</v>
+        <v>1.051811522927956</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044752180215756</v>
+        <v>1.036118984440454</v>
       </c>
       <c r="J15">
-        <v>1.017428563742701</v>
+        <v>1.041198835971372</v>
       </c>
       <c r="K15">
-        <v>1.027184405154336</v>
+        <v>1.045019672577578</v>
       </c>
       <c r="L15">
-        <v>1.020660958919757</v>
+        <v>1.046551507466972</v>
       </c>
       <c r="M15">
-        <v>1.028351717265792</v>
+        <v>1.055305476504573</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9908957464459356</v>
+        <v>1.035265065132704</v>
       </c>
       <c r="D16">
-        <v>1.01496195502142</v>
+        <v>1.041950470788316</v>
       </c>
       <c r="E16">
-        <v>1.008529058248297</v>
+        <v>1.043554566997882</v>
       </c>
       <c r="F16">
-        <v>1.01653616003679</v>
+        <v>1.052371974347639</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045699771431295</v>
+        <v>1.036236667610283</v>
       </c>
       <c r="J16">
-        <v>1.019397336973466</v>
+        <v>1.041586778353697</v>
       </c>
       <c r="K16">
-        <v>1.02903032096355</v>
+        <v>1.04536690959687</v>
       </c>
       <c r="L16">
-        <v>1.022709776293915</v>
+        <v>1.046965370169448</v>
       </c>
       <c r="M16">
-        <v>1.030577312194408</v>
+        <v>1.055752137148386</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9928810694347739</v>
+        <v>1.035646058880331</v>
       </c>
       <c r="D17">
-        <v>1.016445869851753</v>
+        <v>1.042240242301939</v>
       </c>
       <c r="E17">
-        <v>1.010145958715653</v>
+        <v>1.043886390449608</v>
       </c>
       <c r="F17">
-        <v>1.018259961979825</v>
+        <v>1.052723708993158</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046281976693342</v>
+        <v>1.036309905216252</v>
       </c>
       <c r="J17">
-        <v>1.020615593449307</v>
+        <v>1.041830038459855</v>
       </c>
       <c r="K17">
-        <v>1.030171559688349</v>
+        <v>1.045584478535728</v>
       </c>
       <c r="L17">
-        <v>1.023978400811341</v>
+        <v>1.047224974985122</v>
       </c>
       <c r="M17">
-        <v>1.031955227640393</v>
+        <v>1.056032284471852</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9940298427187975</v>
+        <v>1.035868326132189</v>
       </c>
       <c r="D18">
-        <v>1.017304788091441</v>
+        <v>1.042409252409721</v>
       </c>
       <c r="E18">
-        <v>1.01108241228656</v>
+        <v>1.044080013667689</v>
       </c>
       <c r="F18">
-        <v>1.019258171885259</v>
+        <v>1.052928933684776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046617249218665</v>
+        <v>1.036352413544381</v>
       </c>
       <c r="J18">
-        <v>1.021320308334497</v>
+        <v>1.041971896719845</v>
       </c>
       <c r="K18">
-        <v>1.030831357301917</v>
+        <v>1.045711294675645</v>
       </c>
       <c r="L18">
-        <v>1.024712552078701</v>
+        <v>1.047376397645896</v>
       </c>
       <c r="M18">
-        <v>1.032752562719207</v>
+        <v>1.056195678099087</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9944200028184096</v>
+        <v>1.035944120290729</v>
       </c>
       <c r="D19">
-        <v>1.017596548395928</v>
+        <v>1.04246687897006</v>
       </c>
       <c r="E19">
-        <v>1.011400605912372</v>
+        <v>1.044146047070064</v>
       </c>
       <c r="F19">
-        <v>1.019597322767941</v>
+        <v>1.052998920786525</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046730843119058</v>
+        <v>1.0363668721587</v>
       </c>
       <c r="J19">
-        <v>1.021559615082534</v>
+        <v>1.042020261393813</v>
       </c>
       <c r="K19">
-        <v>1.031055348387411</v>
+        <v>1.045754520720961</v>
       </c>
       <c r="L19">
-        <v>1.024961905679243</v>
+        <v>1.047428028755885</v>
       </c>
       <c r="M19">
-        <v>1.033023365832425</v>
+        <v>1.056251389107502</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9926690237324102</v>
+        <v>1.035605177709412</v>
       </c>
       <c r="D20">
-        <v>1.016287348587084</v>
+        <v>1.042209153452461</v>
       </c>
       <c r="E20">
-        <v>1.009973173084701</v>
+        <v>1.04385078104142</v>
       </c>
       <c r="F20">
-        <v>1.01807576894155</v>
+        <v>1.052685964583299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046219959890679</v>
+        <v>1.036302069223453</v>
       </c>
       <c r="J20">
-        <v>1.020485496801901</v>
+        <v>1.041803942177913</v>
       </c>
       <c r="K20">
-        <v>1.030049725461565</v>
+        <v>1.045561144557122</v>
       </c>
       <c r="L20">
-        <v>1.023842894206961</v>
+        <v>1.047197121883161</v>
       </c>
       <c r="M20">
-        <v>1.031808053723847</v>
+        <v>1.056002228503619</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9868660774217589</v>
+        <v>1.034503714947546</v>
       </c>
       <c r="D21">
-        <v>1.011952014724781</v>
+        <v>1.041371163482926</v>
       </c>
       <c r="E21">
-        <v>1.005252960785007</v>
+        <v>1.042891741216017</v>
       </c>
       <c r="F21">
-        <v>1.013042439369698</v>
+        <v>1.051669266821289</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044507741023303</v>
+        <v>1.03608892272178</v>
       </c>
       <c r="J21">
-        <v>1.016923374299922</v>
+        <v>1.041100302280277</v>
       </c>
       <c r="K21">
-        <v>1.026710436099835</v>
+        <v>1.04493142629254</v>
       </c>
       <c r="L21">
-        <v>1.020135492959208</v>
+        <v>1.04644641842866</v>
       </c>
       <c r="M21">
-        <v>1.02778086114368</v>
+        <v>1.055192049862816</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9831286284193765</v>
+        <v>1.033811547500661</v>
       </c>
       <c r="D22">
-        <v>1.009162977691124</v>
+        <v>1.040844216641193</v>
       </c>
       <c r="E22">
-        <v>1.002221313334948</v>
+        <v>1.042289450064876</v>
       </c>
       <c r="F22">
-        <v>1.009808233177713</v>
+        <v>1.051030612656967</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043390622252752</v>
+        <v>1.035953022230506</v>
       </c>
       <c r="J22">
-        <v>1.014627608006667</v>
+        <v>1.040657620605641</v>
       </c>
       <c r="K22">
-        <v>1.024555073732174</v>
+        <v>1.044534710338411</v>
       </c>
       <c r="L22">
-        <v>1.017748893637708</v>
+        <v>1.04597442427713</v>
       </c>
       <c r="M22">
-        <v>1.025187859373026</v>
+        <v>1.054682561882387</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9851186384731981</v>
+        <v>1.034178443626861</v>
       </c>
       <c r="D23">
-        <v>1.010647673457296</v>
+        <v>1.041123567254314</v>
       </c>
       <c r="E23">
-        <v>1.003834696886449</v>
+        <v>1.042608669679068</v>
       </c>
       <c r="F23">
-        <v>1.011529551744075</v>
+        <v>1.051369119510191</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043986759326522</v>
+        <v>1.036025244288313</v>
       </c>
       <c r="J23">
-        <v>1.015850118545488</v>
+        <v>1.040892320339576</v>
       </c>
       <c r="K23">
-        <v>1.02570311253558</v>
+        <v>1.044745091241385</v>
       </c>
       <c r="L23">
-        <v>1.019019508581476</v>
+        <v>1.046224636701035</v>
       </c>
       <c r="M23">
-        <v>1.026568411066235</v>
+        <v>1.054952659876683</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9927648665275833</v>
+        <v>1.035623650027111</v>
       </c>
       <c r="D24">
-        <v>1.016358997956784</v>
+        <v>1.042223201192374</v>
       </c>
       <c r="E24">
-        <v>1.010051268005951</v>
+        <v>1.043866871164812</v>
       </c>
       <c r="F24">
-        <v>1.018159020222341</v>
+        <v>1.052703019460327</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04624799594047</v>
+        <v>1.036305610619987</v>
       </c>
       <c r="J24">
-        <v>1.020544299994378</v>
+        <v>1.041815734061015</v>
       </c>
       <c r="K24">
-        <v>1.03010479520623</v>
+        <v>1.045571688450067</v>
       </c>
       <c r="L24">
-        <v>1.023904141748228</v>
+        <v>1.047209707502433</v>
       </c>
       <c r="M24">
-        <v>1.031874574960704</v>
+        <v>1.056015809537741</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001278177916241</v>
+        <v>1.03730229971511</v>
       </c>
       <c r="D25">
-        <v>1.022728352362133</v>
+        <v>1.043498918422168</v>
       </c>
       <c r="E25">
-        <v>1.017005780679872</v>
+        <v>1.045329929011062</v>
       </c>
       <c r="F25">
-        <v>1.025569370851589</v>
+        <v>1.05425343493183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048703367693745</v>
+        <v>1.036622722686599</v>
       </c>
       <c r="J25">
-        <v>1.025762602710616</v>
+        <v>1.042886075342691</v>
       </c>
       <c r="K25">
-        <v>1.034983795733232</v>
+        <v>1.04652744715261</v>
       </c>
       <c r="L25">
-        <v>1.029345717446792</v>
+        <v>1.048352806574322</v>
       </c>
       <c r="M25">
-        <v>1.037783311053059</v>
+        <v>1.057249077680434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_73/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038642423396847</v>
+        <v>1.007805545434412</v>
       </c>
       <c r="D2">
-        <v>1.044516097984917</v>
+        <v>1.027617235913632</v>
       </c>
       <c r="E2">
-        <v>1.046499221168529</v>
+        <v>1.022362011217097</v>
       </c>
       <c r="F2">
-        <v>1.055492008821156</v>
+        <v>1.031271845195545</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036868983144936</v>
+        <v>1.05053373017566</v>
       </c>
       <c r="J2">
-        <v>1.043738752650487</v>
+        <v>1.029755274317621</v>
       </c>
       <c r="K2">
-        <v>1.047286928701408</v>
+        <v>1.038704773138413</v>
       </c>
       <c r="L2">
-        <v>1.049264485977201</v>
+        <v>1.033518356212154</v>
       </c>
       <c r="M2">
-        <v>1.058232318552412</v>
+        <v>1.042312049034382</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039616177363465</v>
+        <v>1.012404790717003</v>
       </c>
       <c r="D3">
-        <v>1.04525444585178</v>
+        <v>1.031063724954063</v>
       </c>
       <c r="E3">
-        <v>1.047349578577586</v>
+        <v>1.026148903665484</v>
       </c>
       <c r="F3">
-        <v>1.056392440981088</v>
+        <v>1.035300748487027</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037043910859589</v>
+        <v>1.051792057256413</v>
       </c>
       <c r="J3">
-        <v>1.044357262356669</v>
+        <v>1.032562907491628</v>
       </c>
       <c r="K3">
-        <v>1.047836720561548</v>
+        <v>1.041313988155933</v>
       </c>
       <c r="L3">
-        <v>1.049926397693937</v>
+        <v>1.036457789197795</v>
       </c>
       <c r="M3">
-        <v>1.058945980818656</v>
+        <v>1.045501026890026</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040246583607186</v>
+        <v>1.015319640658813</v>
       </c>
       <c r="D4">
-        <v>1.04573209896655</v>
+        <v>1.033248378918516</v>
       </c>
       <c r="E4">
-        <v>1.047900433007013</v>
+        <v>1.028554531542262</v>
       </c>
       <c r="F4">
-        <v>1.056975590338033</v>
+        <v>1.037858827211261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037155301556384</v>
+        <v>1.052574656044944</v>
       </c>
       <c r="J4">
-        <v>1.04475719213287</v>
+        <v>1.034339423930575</v>
       </c>
       <c r="K4">
-        <v>1.048191698784552</v>
+        <v>1.042961425864905</v>
       </c>
       <c r="L4">
-        <v>1.050354670623625</v>
+        <v>1.038320123164427</v>
       </c>
       <c r="M4">
-        <v>1.059407642136563</v>
+        <v>1.047520831728771</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04051168265867</v>
+        <v>1.016530916561552</v>
       </c>
       <c r="D5">
-        <v>1.045932877220013</v>
+        <v>1.034156251239233</v>
       </c>
       <c r="E5">
-        <v>1.048132158427587</v>
+        <v>1.029555501764425</v>
       </c>
       <c r="F5">
-        <v>1.057220866905731</v>
+        <v>1.038922923027855</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037201698745561</v>
+        <v>1.052896240281334</v>
       </c>
       <c r="J5">
-        <v>1.044925252833738</v>
+        <v>1.03507693580318</v>
       </c>
       <c r="K5">
-        <v>1.048340745256467</v>
+        <v>1.043644485713336</v>
       </c>
       <c r="L5">
-        <v>1.050534708735926</v>
+        <v>1.039093842535617</v>
       </c>
       <c r="M5">
-        <v>1.059601693209535</v>
+        <v>1.048359817663533</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040556198402184</v>
+        <v>1.016733481250021</v>
       </c>
       <c r="D6">
-        <v>1.045966587140691</v>
+        <v>1.034308077153104</v>
       </c>
       <c r="E6">
-        <v>1.048171074680907</v>
+        <v>1.029722971843486</v>
       </c>
       <c r="F6">
-        <v>1.057262056950499</v>
+        <v>1.039100936384363</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037209463715757</v>
+        <v>1.052949804781752</v>
       </c>
       <c r="J6">
-        <v>1.044953466844553</v>
+        <v>1.035200228028756</v>
       </c>
       <c r="K6">
-        <v>1.048365759853681</v>
+        <v>1.043758623587487</v>
       </c>
       <c r="L6">
-        <v>1.050564937436922</v>
+        <v>1.039223221828907</v>
       </c>
       <c r="M6">
-        <v>1.059634273365299</v>
+        <v>1.048500101387351</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040250125575135</v>
+        <v>1.015335880630206</v>
       </c>
       <c r="D7">
-        <v>1.045734781883747</v>
+        <v>1.033260551010986</v>
       </c>
       <c r="E7">
-        <v>1.047903528760565</v>
+        <v>1.028567946786488</v>
       </c>
       <c r="F7">
-        <v>1.056978867263522</v>
+        <v>1.037873089697561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037155923214151</v>
+        <v>1.052578982031992</v>
       </c>
       <c r="J7">
-        <v>1.044759438043598</v>
+        <v>1.034349314908045</v>
       </c>
       <c r="K7">
-        <v>1.048193691084524</v>
+        <v>1.042970590016587</v>
       </c>
       <c r="L7">
-        <v>1.050357076333805</v>
+        <v>1.038330497435595</v>
       </c>
       <c r="M7">
-        <v>1.059410235181189</v>
+        <v>1.047532081735009</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038971440833103</v>
+        <v>1.009372867161311</v>
       </c>
       <c r="D8">
-        <v>1.044765647473418</v>
+        <v>1.028791606058184</v>
       </c>
       <c r="E8">
-        <v>1.046786475023407</v>
+        <v>1.023651293995826</v>
       </c>
       <c r="F8">
-        <v>1.055796207737536</v>
+        <v>1.03264379245321</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036928472896355</v>
+        <v>1.050965628532743</v>
       </c>
       <c r="J8">
-        <v>1.04394783981248</v>
+        <v>1.030712632557597</v>
       </c>
       <c r="K8">
-        <v>1.047472893007043</v>
+        <v>1.039595203855124</v>
       </c>
       <c r="L8">
-        <v>1.04948818733812</v>
+        <v>1.034520147322377</v>
       </c>
       <c r="M8">
-        <v>1.058473529398671</v>
+        <v>1.043399018173781</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036720742773146</v>
+        <v>0.9983721671175536</v>
       </c>
       <c r="D9">
-        <v>1.043057149233229</v>
+        <v>1.02055314283125</v>
       </c>
       <c r="E9">
-        <v>1.044822862425213</v>
+        <v>1.014627915840004</v>
       </c>
       <c r="F9">
-        <v>1.053716174823376</v>
+        <v>1.023036410830444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03651392792973</v>
+        <v>1.047873319244939</v>
       </c>
       <c r="J9">
-        <v>1.042515542268365</v>
+        <v>1.023982539604233</v>
       </c>
       <c r="K9">
-        <v>1.04619687624649</v>
+        <v>1.033321334107651</v>
       </c>
       <c r="L9">
-        <v>1.047956924980987</v>
+        <v>1.027488041125547</v>
       </c>
       <c r="M9">
-        <v>1.056822022952031</v>
+        <v>1.035766476473046</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035222014608787</v>
+        <v>0.9906701180597307</v>
       </c>
       <c r="D10">
-        <v>1.041917722671085</v>
+        <v>1.014793350473971</v>
       </c>
       <c r="E10">
-        <v>1.043517078096145</v>
+        <v>1.008345419528965</v>
       </c>
       <c r="F10">
-        <v>1.052332233614569</v>
+        <v>1.016340358579937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036228362666383</v>
+        <v>1.045633386930079</v>
       </c>
       <c r="J10">
-        <v>1.041559283414111</v>
+        <v>1.01925885712539</v>
       </c>
       <c r="K10">
-        <v>1.045342310310746</v>
+        <v>1.028900546458489</v>
       </c>
       <c r="L10">
-        <v>1.046936032291316</v>
+        <v>1.022565612127047</v>
       </c>
       <c r="M10">
-        <v>1.055720476266042</v>
+        <v>1.030420719982009</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034573470977231</v>
+        <v>0.9872387900241574</v>
       </c>
       <c r="D11">
-        <v>1.041424254068164</v>
+        <v>1.012230291368849</v>
       </c>
       <c r="E11">
-        <v>1.042952455624236</v>
+        <v>1.00555565040349</v>
       </c>
       <c r="F11">
-        <v>1.05173364033933</v>
+        <v>1.013365292083172</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036102535716332</v>
+        <v>1.044618551550496</v>
       </c>
       <c r="J11">
-        <v>1.041144893814154</v>
+        <v>1.017152258202227</v>
       </c>
       <c r="K11">
-        <v>1.044971364806084</v>
+        <v>1.026925190098144</v>
       </c>
       <c r="L11">
-        <v>1.046493975189003</v>
+        <v>1.020373550347544</v>
       </c>
       <c r="M11">
-        <v>1.055243380175141</v>
+        <v>1.028039484634024</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034332636175689</v>
+        <v>0.9859489534486712</v>
       </c>
       <c r="D12">
-        <v>1.041240945767739</v>
+        <v>1.011267374842645</v>
       </c>
       <c r="E12">
-        <v>1.042742849758554</v>
+        <v>1.004508420578625</v>
       </c>
       <c r="F12">
-        <v>1.051511396983049</v>
+        <v>1.012248255347869</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036055471810863</v>
+        <v>1.044234605638502</v>
       </c>
       <c r="J12">
-        <v>1.04099092339964</v>
+        <v>1.016360117515769</v>
       </c>
       <c r="K12">
-        <v>1.044833443002753</v>
+        <v>1.02618184719803</v>
       </c>
       <c r="L12">
-        <v>1.046329775916221</v>
+        <v>1.01954975309712</v>
       </c>
       <c r="M12">
-        <v>1.055066148667759</v>
+        <v>1.027144500945417</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034384293187135</v>
+        <v>0.9862263334662776</v>
       </c>
       <c r="D13">
-        <v>1.041280266546077</v>
+        <v>1.011474424744327</v>
       </c>
       <c r="E13">
-        <v>1.042787805475136</v>
+        <v>1.004733561419664</v>
       </c>
       <c r="F13">
-        <v>1.051559064353082</v>
+        <v>1.012488415059554</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036065581928137</v>
+        <v>1.044317283742785</v>
       </c>
       <c r="J13">
-        <v>1.041023952718935</v>
+        <v>1.016530479071417</v>
       </c>
       <c r="K13">
-        <v>1.04486303384154</v>
+        <v>1.026341738672587</v>
       </c>
       <c r="L13">
-        <v>1.046364997182809</v>
+        <v>1.019726901123742</v>
       </c>
       <c r="M13">
-        <v>1.055104166168982</v>
+        <v>1.027336960911248</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034553562204236</v>
+        <v>0.987132488576119</v>
       </c>
       <c r="D14">
-        <v>1.041409101985769</v>
+        <v>1.012150921462332</v>
       </c>
       <c r="E14">
-        <v>1.042935127081541</v>
+        <v>1.005469313517956</v>
       </c>
       <c r="F14">
-        <v>1.051715267569474</v>
+        <v>1.013273205177452</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036098652049374</v>
+        <v>1.044586958524768</v>
       </c>
       <c r="J14">
-        <v>1.041132167538892</v>
+        <v>1.017086979357196</v>
       </c>
       <c r="K14">
-        <v>1.04495996691789</v>
+        <v>1.026863943690811</v>
       </c>
       <c r="L14">
-        <v>1.046480402411642</v>
+        <v>1.020305652969923</v>
       </c>
       <c r="M14">
-        <v>1.055228730499238</v>
+        <v>1.027965721932484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03465786282654</v>
+        <v>0.9876887491713854</v>
       </c>
       <c r="D15">
-        <v>1.041488480190231</v>
+        <v>1.012566275534038</v>
       </c>
       <c r="E15">
-        <v>1.043025912732169</v>
+        <v>1.005921161672633</v>
       </c>
       <c r="F15">
-        <v>1.051811522927956</v>
+        <v>1.013755136151789</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036118984440454</v>
+        <v>1.044752180215756</v>
       </c>
       <c r="J15">
-        <v>1.041198835971372</v>
+        <v>1.0174285637427</v>
       </c>
       <c r="K15">
-        <v>1.045019672577578</v>
+        <v>1.027184405154335</v>
       </c>
       <c r="L15">
-        <v>1.046551507466972</v>
+        <v>1.020660958919757</v>
       </c>
       <c r="M15">
-        <v>1.055305476504573</v>
+        <v>1.028351717265792</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035265065132704</v>
+        <v>0.9908957464459346</v>
       </c>
       <c r="D16">
-        <v>1.041950470788316</v>
+        <v>1.01496195502142</v>
       </c>
       <c r="E16">
-        <v>1.043554566997882</v>
+        <v>1.008529058248297</v>
       </c>
       <c r="F16">
-        <v>1.052371974347639</v>
+        <v>1.01653616003679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036236667610283</v>
+        <v>1.045699771431295</v>
       </c>
       <c r="J16">
-        <v>1.041586778353697</v>
+        <v>1.019397336973465</v>
       </c>
       <c r="K16">
-        <v>1.04536690959687</v>
+        <v>1.029030320963549</v>
       </c>
       <c r="L16">
-        <v>1.046965370169448</v>
+        <v>1.022709776293915</v>
       </c>
       <c r="M16">
-        <v>1.055752137148386</v>
+        <v>1.030577312194408</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035646058880331</v>
+        <v>0.9928810694347752</v>
       </c>
       <c r="D17">
-        <v>1.042240242301939</v>
+        <v>1.016445869851754</v>
       </c>
       <c r="E17">
-        <v>1.043886390449608</v>
+        <v>1.010145958715654</v>
       </c>
       <c r="F17">
-        <v>1.052723708993158</v>
+        <v>1.018259961979826</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036309905216252</v>
+        <v>1.046281976693342</v>
       </c>
       <c r="J17">
-        <v>1.041830038459855</v>
+        <v>1.020615593449308</v>
       </c>
       <c r="K17">
-        <v>1.045584478535728</v>
+        <v>1.03017155968835</v>
       </c>
       <c r="L17">
-        <v>1.047224974985122</v>
+        <v>1.023978400811342</v>
       </c>
       <c r="M17">
-        <v>1.056032284471852</v>
+        <v>1.031955227640394</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035868326132189</v>
+        <v>0.9940298427187985</v>
       </c>
       <c r="D18">
-        <v>1.042409252409721</v>
+        <v>1.017304788091442</v>
       </c>
       <c r="E18">
-        <v>1.044080013667689</v>
+        <v>1.011082412286561</v>
       </c>
       <c r="F18">
-        <v>1.052928933684776</v>
+        <v>1.01925817188526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036352413544381</v>
+        <v>1.046617249218666</v>
       </c>
       <c r="J18">
-        <v>1.041971896719845</v>
+        <v>1.021320308334499</v>
       </c>
       <c r="K18">
-        <v>1.045711294675645</v>
+        <v>1.030831357301918</v>
       </c>
       <c r="L18">
-        <v>1.047376397645896</v>
+        <v>1.024712552078702</v>
       </c>
       <c r="M18">
-        <v>1.056195678099087</v>
+        <v>1.032752562719208</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035944120290729</v>
+        <v>0.994420002818409</v>
       </c>
       <c r="D19">
-        <v>1.04246687897006</v>
+        <v>1.017596548395927</v>
       </c>
       <c r="E19">
-        <v>1.044146047070064</v>
+        <v>1.011400605912371</v>
       </c>
       <c r="F19">
-        <v>1.052998920786525</v>
+        <v>1.019597322767939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0363668721587</v>
+        <v>1.046730843119058</v>
       </c>
       <c r="J19">
-        <v>1.042020261393813</v>
+        <v>1.021559615082533</v>
       </c>
       <c r="K19">
-        <v>1.045754520720961</v>
+        <v>1.031055348387411</v>
       </c>
       <c r="L19">
-        <v>1.047428028755885</v>
+        <v>1.024961905679242</v>
       </c>
       <c r="M19">
-        <v>1.056251389107502</v>
+        <v>1.033023365832424</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035605177709412</v>
+        <v>0.9926690237324097</v>
       </c>
       <c r="D20">
-        <v>1.042209153452461</v>
+        <v>1.016287348587084</v>
       </c>
       <c r="E20">
-        <v>1.04385078104142</v>
+        <v>1.0099731730847</v>
       </c>
       <c r="F20">
-        <v>1.052685964583299</v>
+        <v>1.018075768941549</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036302069223453</v>
+        <v>1.046219959890679</v>
       </c>
       <c r="J20">
-        <v>1.041803942177913</v>
+        <v>1.020485496801901</v>
       </c>
       <c r="K20">
-        <v>1.045561144557122</v>
+        <v>1.030049725461565</v>
       </c>
       <c r="L20">
-        <v>1.047197121883161</v>
+        <v>1.02384289420696</v>
       </c>
       <c r="M20">
-        <v>1.056002228503619</v>
+        <v>1.031808053723847</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034503714947546</v>
+        <v>0.9868660774217592</v>
       </c>
       <c r="D21">
-        <v>1.041371163482926</v>
+        <v>1.011952014724782</v>
       </c>
       <c r="E21">
-        <v>1.042891741216017</v>
+        <v>1.005252960785008</v>
       </c>
       <c r="F21">
-        <v>1.051669266821289</v>
+        <v>1.013042439369698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03608892272178</v>
+        <v>1.044507741023304</v>
       </c>
       <c r="J21">
-        <v>1.041100302280277</v>
+        <v>1.016923374299922</v>
       </c>
       <c r="K21">
-        <v>1.04493142629254</v>
+        <v>1.026710436099836</v>
       </c>
       <c r="L21">
-        <v>1.04644641842866</v>
+        <v>1.020135492959208</v>
       </c>
       <c r="M21">
-        <v>1.055192049862816</v>
+        <v>1.027780861143681</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033811547500661</v>
+        <v>0.9831286284193758</v>
       </c>
       <c r="D22">
-        <v>1.040844216641193</v>
+        <v>1.009162977691123</v>
       </c>
       <c r="E22">
-        <v>1.042289450064876</v>
+        <v>1.002221313334947</v>
       </c>
       <c r="F22">
-        <v>1.051030612656967</v>
+        <v>1.009808233177712</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035953022230506</v>
+        <v>1.043390622252751</v>
       </c>
       <c r="J22">
-        <v>1.040657620605641</v>
+        <v>1.014627608006667</v>
       </c>
       <c r="K22">
-        <v>1.044534710338411</v>
+        <v>1.024555073732173</v>
       </c>
       <c r="L22">
-        <v>1.04597442427713</v>
+        <v>1.017748893637707</v>
       </c>
       <c r="M22">
-        <v>1.054682561882387</v>
+        <v>1.025187859373025</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034178443626861</v>
+        <v>0.9851186384731985</v>
       </c>
       <c r="D23">
-        <v>1.041123567254314</v>
+        <v>1.010647673457296</v>
       </c>
       <c r="E23">
-        <v>1.042608669679068</v>
+        <v>1.003834696886449</v>
       </c>
       <c r="F23">
-        <v>1.051369119510191</v>
+        <v>1.011529551744075</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036025244288313</v>
+        <v>1.043986759326522</v>
       </c>
       <c r="J23">
-        <v>1.040892320339576</v>
+        <v>1.015850118545488</v>
       </c>
       <c r="K23">
-        <v>1.044745091241385</v>
+        <v>1.02570311253558</v>
       </c>
       <c r="L23">
-        <v>1.046224636701035</v>
+        <v>1.019019508581476</v>
       </c>
       <c r="M23">
-        <v>1.054952659876683</v>
+        <v>1.026568411066235</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035623650027111</v>
+        <v>0.9927648665275821</v>
       </c>
       <c r="D24">
-        <v>1.042223201192374</v>
+        <v>1.016358997956783</v>
       </c>
       <c r="E24">
-        <v>1.043866871164812</v>
+        <v>1.01005126800595</v>
       </c>
       <c r="F24">
-        <v>1.052703019460327</v>
+        <v>1.01815902022234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036305610619987</v>
+        <v>1.04624799594047</v>
       </c>
       <c r="J24">
-        <v>1.041815734061015</v>
+        <v>1.020544299994377</v>
       </c>
       <c r="K24">
-        <v>1.045571688450067</v>
+        <v>1.030104795206229</v>
       </c>
       <c r="L24">
-        <v>1.047209707502433</v>
+        <v>1.023904141748228</v>
       </c>
       <c r="M24">
-        <v>1.056015809537741</v>
+        <v>1.031874574960703</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03730229971511</v>
+        <v>1.001278177916242</v>
       </c>
       <c r="D25">
-        <v>1.043498918422168</v>
+        <v>1.022728352362133</v>
       </c>
       <c r="E25">
-        <v>1.045329929011062</v>
+        <v>1.017005780679872</v>
       </c>
       <c r="F25">
-        <v>1.05425343493183</v>
+        <v>1.025569370851591</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036622722686599</v>
+        <v>1.048703367693746</v>
       </c>
       <c r="J25">
-        <v>1.042886075342691</v>
+        <v>1.025762602710616</v>
       </c>
       <c r="K25">
-        <v>1.04652744715261</v>
+        <v>1.034983795733233</v>
       </c>
       <c r="L25">
-        <v>1.048352806574322</v>
+        <v>1.029345717446793</v>
       </c>
       <c r="M25">
-        <v>1.057249077680434</v>
+        <v>1.037783311053059</v>
       </c>
     </row>
   </sheetData>
